--- a/biology/Botanique/Feux_de_forêt_de_2021_en_France/Feux_de_forêt_de_2021_en_France.xlsx
+++ b/biology/Botanique/Feux_de_forêt_de_2021_en_France/Feux_de_forêt_de_2021_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Feux_de_for%C3%AAt_de_2021_en_France</t>
+          <t>Feux_de_forêt_de_2021_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feux de forêt de 2021 en France sont une série d’incendies qui se déroulent en août 2021 dans le Var, faisant 2 morts et 26 blessés.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Feux_de_for%C3%AAt_de_2021_en_France</t>
+          <t>Feux_de_forêt_de_2021_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Première vague août 2021
-Le feu de forêt principal est déclenché le 16 août 2021 à Gonfaron dans le Var au nord-est de Toulon au niveau de l’autoroute A57 sur une aire de repos[1]. Une vigie des sapeurs-pompiers signale le feu à 17h43 et un premier véhicule intervient à 17h55. À ce moment-là, 0,3 hectare ont déjà brûlé. La cause du feu est le « jet d'objets incandescents »[2]. Les enquêteurs sont « catégoriques » sur l’origine humaine du feu[3]. 
-Le 23 août 2021 l’incendie a été déclaré comme maitrisé par le SDIS 83, cependant, il faudra au moins une semaine avant que celui-ci ne soit déclaré comme « éteint et sans braise »[4]. Le jeudi 26 août 2021 à 12h00, le feu a été déclaré éteint par les pompiers du Var[5]. 
-Le 19 août 2021 on déplore 24 blessés et 2 morts[6], plusieurs habitations ont dû être évacuées[1]. À la suite des conditions météorologiques favorables, les pompiers ont pu stabiliser le feu, cependant le Var et le massif des Maures restent en alerte incendie sévère[7]. 
-Un total de 6 832 hectares de forêts, de vignes et de garrigues ont été détruits. Le feu a parcouru 8 100 hectares et touché 9 communes : Gonfaron, La Garde-Freinet, Le Luc, Vidauban, les Mayons, Le Cannet-des-Maures, la Môle, Grimaud et Cogolin[2],[8],[9].
+          <t>Première vague août 2021</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le feu de forêt principal est déclenché le 16 août 2021 à Gonfaron dans le Var au nord-est de Toulon au niveau de l’autoroute A57 sur une aire de repos. Une vigie des sapeurs-pompiers signale le feu à 17h43 et un premier véhicule intervient à 17h55. À ce moment-là, 0,3 hectare ont déjà brûlé. La cause du feu est le « jet d'objets incandescents ». Les enquêteurs sont « catégoriques » sur l’origine humaine du feu. 
+Le 23 août 2021 l’incendie a été déclaré comme maitrisé par le SDIS 83, cependant, il faudra au moins une semaine avant que celui-ci ne soit déclaré comme « éteint et sans braise ». Le jeudi 26 août 2021 à 12h00, le feu a été déclaré éteint par les pompiers du Var. 
+Le 19 août 2021 on déplore 24 blessés et 2 morts, plusieurs habitations ont dû être évacuées. À la suite des conditions météorologiques favorables, les pompiers ont pu stabiliser le feu, cependant le Var et le massif des Maures restent en alerte incendie sévère. 
+Un total de 6 832 hectares de forêts, de vignes et de garrigues ont été détruits. Le feu a parcouru 8 100 hectares et touché 9 communes : Gonfaron, La Garde-Freinet, Le Luc, Vidauban, les Mayons, Le Cannet-des-Maures, la Môle, Grimaud et Cogolin.
 Toutefois il faut relativiser et replacer cet incendie dans le contexte normal des incendies de forêts en France. En moyenne chaque année ce sont 35 000 ha de forêts qui brûlent. Les incendies dans les massifs des Maures et de l’Estérel par exemple ont existé depuis fort longtemps. Ainsi du 20 au 29 juillet 1918, on a un incendie de 10 000 hectares de Saint-Raphaël à Mandelieu (et deux morts) ; du 26 au 30 juillet 1921, à nouveau 10 000 hectares. On peut remonter plus avant dans le temps et trouver des incendies aussi dramatiques : du 1er au 5 septembre 1877, donc à l’aube de l’ère industrielle, 10 000 hectares brûlent. Plus antérieurement encore des incendies de grande ampleur sont signalés mais on manque évidemment de données chiffrées[réf. nécessaire].
-Le feu est décrit comme « le plus complexe de ces dernières années » par les pompiers[10]. Le directeur du SDIS précise pour la première nuit que « le feu est d’une puissance exceptionnelle, extrême. Nous avons des 'sauts de feu' de plus d’1km5 »[11]. Singulièrement, la vitesse du feu a été surprenante, se déplaçant à 4,1 km/h, « dépassant les vitesses théoriques »[12]. À cette date, il s’agit du troisième plus important feu de forêt recensé ces cinquante dernières années après les deux feux d’août 1990[13], le plus gros feu dans le Var de ces trente dernières années[14].
-Le bilan de cet incendie est lourd : 2 personnes ont trouvé la mort, 26 personnes ont été blessées et 10 000 personnes évacuées[9]. Au hameau du Val de Gily, six maisons ont été détruites[3] et un camping a été totalement détruit[15]. 1 200 pompiers, 12 canadair et 5 avions "dash" ont été mobilisés au plus fort de l’incendie.
+Le feu est décrit comme « le plus complexe de ces dernières années » par les pompiers. Le directeur du SDIS précise pour la première nuit que « le feu est d’une puissance exceptionnelle, extrême. Nous avons des 'sauts de feu' de plus d’1km5 ». Singulièrement, la vitesse du feu a été surprenante, se déplaçant à 4,1 km/h, « dépassant les vitesses théoriques ». À cette date, il s’agit du troisième plus important feu de forêt recensé ces cinquante dernières années après les deux feux d’août 1990, le plus gros feu dans le Var de ces trente dernières années.
+Le bilan de cet incendie est lourd : 2 personnes ont trouvé la mort, 26 personnes ont été blessées et 10 000 personnes évacuées. Au hameau du Val de Gily, six maisons ont été détruites et un camping a été totalement détruit. 1 200 pompiers, 12 canadair et 5 avions "dash" ont été mobilisés au plus fort de l’incendie.
 </t>
         </is>
       </c>
@@ -531,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Feux_de_for%C3%AAt_de_2021_en_France</t>
+          <t>Feux_de_forêt_de_2021_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,11 +566,13 @@
           <t>Réaction du gouvernement et des autorités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le président de la république Emmanuel Macron et le ministre de l’Intérieur Gérald Darmanin se sont rendus mardi-midi, 17 août 2021 au PC Sécurité du Luc dans le Var afin d’y rencontrer les équipes du SDIS et les pompiers mobilisés[16].
-Un observatoire post-incendie regroupant l’Office national des forêts, le Centre national de la propriété forestière, l’Association syndicale libre de la suberaie varoise et le Syndicat mixte du massif des Maures est créé pour suivre les effets des actions de restauration du milieu naturel après sinistre. Des étudiants de l’école d’AgroParisTech participent à la définition des méthodes[17].
-En juillet 2022, une délégation sénatoriale se rend sur les lieux de l’incendie[18].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le président de la république Emmanuel Macron et le ministre de l’Intérieur Gérald Darmanin se sont rendus mardi-midi, 17 août 2021 au PC Sécurité du Luc dans le Var afin d’y rencontrer les équipes du SDIS et les pompiers mobilisés.
+Un observatoire post-incendie regroupant l’Office national des forêts, le Centre national de la propriété forestière, l’Association syndicale libre de la suberaie varoise et le Syndicat mixte du massif des Maures est créé pour suivre les effets des actions de restauration du milieu naturel après sinistre. Des étudiants de l’école d’AgroParisTech participent à la définition des méthodes.
+En juillet 2022, une délégation sénatoriale se rend sur les lieux de l’incendie.
 </t>
         </is>
       </c>
@@ -564,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Feux_de_for%C3%AAt_de_2021_en_France</t>
+          <t>Feux_de_forêt_de_2021_en_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +601,11 @@
           <t>Réaction de la population</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des habitants du hameau de Val de Gily à Grimaud, où plusieurs maisons ont été détruites, près du lieu où deux personnes sont mortes, créent un collectif quelques jours plus tard. Ils dénoncent plusieurs points dans la gestion de la crise. Les autorités leur ont demandé de rester dans leurs habitations alors que le lieu n’était pas adapté. Ils indiquent que des secours promis ne sont pas arrivés, ce qui a été vécu comme un abandon. Au total, 21 points sont soulevés par les habitants[12],[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des habitants du hameau de Val de Gily à Grimaud, où plusieurs maisons ont été détruites, près du lieu où deux personnes sont mortes, créent un collectif quelques jours plus tard. Ils dénoncent plusieurs points dans la gestion de la crise. Les autorités leur ont demandé de rester dans leurs habitations alors que le lieu n’était pas adapté. Ils indiquent que des secours promis ne sont pas arrivés, ce qui a été vécu comme un abandon. Au total, 21 points sont soulevés par les habitants,.
 </t>
         </is>
       </c>
@@ -595,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Feux_de_for%C3%AAt_de_2021_en_France</t>
+          <t>Feux_de_forêt_de_2021_en_France</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +634,11 @@
           <t>L’enquête judiciaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fin décembre 2022, un individu présenté comme un marginal connaissant des problèmes de drogue est mis en examen pour l’incendie par imprudence ayant causé la mort. Selon les enquêteurs, il était la seule personne présente sur l’aire d’autoroute au moment du départ du feu. Au moment de sa mise en examen, les enquêteurs poursuivent leurs investigations pour déterminer le caractère volontaire ou involontaire de l’acte[19].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin décembre 2022, un individu présenté comme un marginal connaissant des problèmes de drogue est mis en examen pour l’incendie par imprudence ayant causé la mort. Selon les enquêteurs, il était la seule personne présente sur l’aire d’autoroute au moment du départ du feu. Au moment de sa mise en examen, les enquêteurs poursuivent leurs investigations pour déterminer le caractère volontaire ou involontaire de l’acte.
 </t>
         </is>
       </c>
@@ -626,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Feux_de_for%C3%AAt_de_2021_en_France</t>
+          <t>Feux_de_forêt_de_2021_en_France</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,10 +667,12 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le manque de respect des obligations légales de débroussaillement, mis en avant pour expliquer l’avancée du feu et la lourdeur du bilan, conduit le contrôleur général du service d’incendie et de secours du Var a des annonces quelques mois plus tard. Éric Grohin affirme qu’il n’acceptera plus l’envoi de pompiers dans les zones non débroussaillées. Il explique que « 92 % des maisons qui ont brûlé n’étaient pas débroussaillées. Les 8% restantes étaient débroussaillées, mais avaient par exemple des volets en PVC, des appentis en bois très proches »[20].
-Un an après avoir été touchées, plusieurs familles rencontrent des difficultés dans leur vie personnelle ou professionnelle[21].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le manque de respect des obligations légales de débroussaillement, mis en avant pour expliquer l’avancée du feu et la lourdeur du bilan, conduit le contrôleur général du service d’incendie et de secours du Var a des annonces quelques mois plus tard. Éric Grohin affirme qu’il n’acceptera plus l’envoi de pompiers dans les zones non débroussaillées. Il explique que « 92 % des maisons qui ont brûlé n’étaient pas débroussaillées. Les 8% restantes étaient débroussaillées, mais avaient par exemple des volets en PVC, des appentis en bois très proches ».
+Un an après avoir été touchées, plusieurs familles rencontrent des difficultés dans leur vie personnelle ou professionnelle.
 </t>
         </is>
       </c>
